--- a/data/Subset1_WithDialogActs/Video Mosaic 12th grade taxicab.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic 12th grade taxicab.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2903,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7235,12 +7235,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7463,12 +7463,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7615,12 +7615,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7653,12 +7653,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7881,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8337,12 +8337,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8641,12 +8641,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8983,12 +8983,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9249,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9363,12 +9363,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9515,12 +9515,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9553,12 +9553,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9743,12 +9743,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10199,12 +10199,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
